--- a/dataset/users.xlsx
+++ b/dataset/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,19 +451,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>minh</t>
+          <t>Nam Nguyễn Văn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>dataset/User1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lương Hữu Quang Minh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dataset/User2</t>
         </is>
       </c>
     </row>

--- a/dataset/users.xlsx
+++ b/dataset/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,8 +451,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,24 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dataset/User1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lương Hữu Quang Minh</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dataset/User2</t>
+          <t>dataset/User421</t>
         </is>
       </c>
     </row>

--- a/dataset/users.xlsx
+++ b/dataset/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>421</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20200421</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -463,7 +461,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dataset/User421</t>
+          <t>dataset/User20200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20200400</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Minh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dataset/User20200400</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chi Bùi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dataset/User123456</t>
         </is>
       </c>
     </row>
